--- a/04_Writing/02_Tables/tab_regression.xlsx
+++ b/04_Writing/02_Tables/tab_regression.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Jobs\ZEW\Research\01_Promotion\05_Ideas\09_Cleantech\cleantech\04_Writing\02_Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dokumente\Jobs\ZEW\Research\01_Promotion\05_Ideas\09_Cleantech\cleantech\04_Writing\02_Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3638AB49-EAC9-4C91-A3D4-CAAF2DDA92AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9345" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="OrderedLogit_WIRK_simple" sheetId="6" r:id="rId1"/>
+    <sheet name="OrderedLogit_WIRK_full" sheetId="6" r:id="rId1"/>
     <sheet name="OrderedLogit_WIRK_techprox" sheetId="9" r:id="rId2"/>
     <sheet name="OrderedLogit_WIRK_cleantech" sheetId="10" r:id="rId3"/>
     <sheet name="OrderedLogit_INNO_techprox" sheetId="7" r:id="rId4"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2667" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="275">
   <si>
     <t>&amp;</t>
   </si>
@@ -40,21 +41,12 @@
     <t>\\</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Sector controls</t>
   </si>
   <si>
-    <t>F\&amp;E</t>
-  </si>
-  <si>
     <t>$t$</t>
   </si>
   <si>
-    <t>\textsc{TechProx}_{t}</t>
-  </si>
-  <si>
     <t>Adaption</t>
   </si>
   <si>
@@ -85,88 +77,7 @@
     <t>Water</t>
   </si>
   <si>
-    <t>$N$</t>
-  </si>
-  <si>
-    <t>{3,269}</t>
-  </si>
-  <si>
-    <t>4.0**</t>
-  </si>
-  <si>
-    <t>87.5***</t>
-  </si>
-  <si>
-    <t>149.0***</t>
-  </si>
-  <si>
-    <t>126.0***</t>
-  </si>
-  <si>
-    <t>95.7***</t>
-  </si>
-  <si>
-    <t>12.5***</t>
-  </si>
-  <si>
-    <t>73.6***</t>
-  </si>
-  <si>
-    <t>50.5***</t>
-  </si>
-  <si>
-    <t>35.1***</t>
-  </si>
-  <si>
-    <t>25.9***</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>2.8***</t>
-  </si>
-  <si>
-    <t>1.9**</t>
-  </si>
-  <si>
-    <t>2.2**</t>
-  </si>
-  <si>
-    <t>4.4***</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>4.2***</t>
-  </si>
-  <si>
-    <t>2.3***</t>
-  </si>
-  <si>
-    <t>2.2***</t>
-  </si>
-  <si>
-    <t>2.0***</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>1.8***</t>
-  </si>
-  <si>
-    <t>{2,840}</t>
-  </si>
-  <si>
     <t>Product type controls</t>
-  </si>
-  <si>
-    <t>cleantech</t>
   </si>
   <si>
     <t>1.016**</t>
@@ -952,7 +863,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -995,12 +906,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1010,8 +918,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1288,1449 +1196,237 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="4"/>
-    <col min="21" max="16384" width="9.140625" style="4"/>
+    <col min="19" max="19" width="9.140625" style="3"/>
+    <col min="21" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" t="s">
-        <v>42</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>42</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S6" t="s">
-        <v>42</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U6" t="s">
-        <v>42</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O9" t="s">
-        <v>13</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3" t="s">
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3"/>
       <c r="D11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="F11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3"/>
-      <c r="P13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>18</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O15" t="s">
-        <v>18</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>18</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S15" t="s">
-        <v>18</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V15" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
-        <v>12</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O18" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>14</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="V18" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="V19" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3"/>
-      <c r="P20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V20" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3"/>
-      <c r="P21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V21" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3"/>
-      <c r="P22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V22" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V23" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M24" t="s">
-        <v>18</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O24" t="s">
-        <v>18</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>18</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S24" t="s">
-        <v>18</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V24" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F37" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2740,14 +1436,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.85546875" customWidth="1"/>
@@ -2765,67 +1461,67 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="L1" t="s">
         <v>0</v>
       </c>
       <c r="M1" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="N1" t="s">
         <v>0</v>
       </c>
       <c r="O1" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="R1" t="s">
         <v>0</v>
       </c>
       <c r="S1" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="T1" t="s">
         <v>0</v>
       </c>
       <c r="U1" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="V1" t="s">
         <v>1</v>
@@ -2833,25 +1529,25 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
@@ -2901,19 +1597,19 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -2930,8 +1626,8 @@
       <c r="J3" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>163</v>
+      <c r="K3" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="L3" t="s">
         <v>0</v>
@@ -2969,67 +1665,67 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="J4" t="s">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L4" t="s">
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="N4" t="s">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="P4" t="s">
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="R4" t="s">
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="T4" t="s">
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="V4" t="s">
         <v>1</v>
@@ -3037,67 +1733,67 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="L5" t="s">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="N5" t="s">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="P5" t="s">
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="R5" t="s">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="T5" t="s">
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="V5" t="s">
         <v>1</v>
@@ -3105,67 +1801,67 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L6" t="s">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="N6" t="s">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="P6" t="s">
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="R6" t="s">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="T6" t="s">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="V6" t="s">
         <v>1</v>
@@ -3173,61 +1869,61 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
         <v>95</v>
       </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>72</v>
-      </c>
-      <c r="J7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>72</v>
-      </c>
-      <c r="N7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O7" t="s">
-        <v>125</v>
-      </c>
       <c r="P7" t="s">
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="R7" t="s">
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="T7" t="s">
         <v>0</v>
@@ -3241,67 +1937,67 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L8" t="s">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="N8" t="s">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="P8" t="s">
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="R8" t="s">
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="T8" t="s">
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="V8" t="s">
         <v>1</v>
@@ -3309,67 +2005,67 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L9" t="s">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="N9" t="s">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="P9" t="s">
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="R9" t="s">
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="T9" t="s">
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="V9" t="s">
         <v>1</v>
@@ -3377,67 +2073,67 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="J10" t="s">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="L10" t="s">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="N10" t="s">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="P10" t="s">
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="R10" t="s">
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="T10" t="s">
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="V10" t="s">
         <v>1</v>
@@ -3445,67 +2141,67 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="L11" t="s">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="N11" t="s">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="P11" t="s">
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="R11" t="s">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="T11" t="s">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="V11" t="s">
         <v>1</v>
@@ -3513,67 +2209,67 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="D12" t="s">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="H12" t="s">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="J12" t="s">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="L12" t="s">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="N12" t="s">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="P12" t="s">
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="R12" t="s">
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="T12" t="s">
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="V12" t="s">
         <v>1</v>
@@ -3581,7 +2277,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -3649,7 +2345,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -3717,18 +2413,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.28515625" customWidth="1"/>
@@ -3747,67 +2444,67 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="L1" t="s">
         <v>0</v>
       </c>
       <c r="M1" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="N1" t="s">
         <v>0</v>
       </c>
       <c r="O1" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="R1" t="s">
         <v>0</v>
       </c>
       <c r="S1" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="T1" t="s">
         <v>0</v>
       </c>
       <c r="U1" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="V1" t="s">
         <v>1</v>
@@ -3815,25 +2512,25 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
@@ -3883,19 +2580,19 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -3951,67 +2648,67 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="J4" t="s">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L4" t="s">
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="N4" t="s">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="P4" t="s">
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="R4" t="s">
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="T4" t="s">
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="V4" t="s">
         <v>1</v>
@@ -4019,67 +2716,67 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="L5" t="s">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="N5" t="s">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="P5" t="s">
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="R5" t="s">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="T5" t="s">
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="V5" t="s">
         <v>1</v>
@@ -4087,67 +2784,67 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L6" t="s">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="N6" t="s">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="P6" t="s">
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="R6" t="s">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="T6" t="s">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="V6" t="s">
         <v>1</v>
@@ -4155,61 +2852,61 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L7" t="s">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="N7" t="s">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="P7" t="s">
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="R7" t="s">
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="T7" t="s">
         <v>0</v>
@@ -4223,67 +2920,67 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L8" t="s">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="N8" t="s">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="P8" t="s">
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="R8" t="s">
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="T8" t="s">
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="V8" t="s">
         <v>1</v>
@@ -4291,67 +2988,67 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L9" t="s">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="N9" t="s">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="P9" t="s">
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="R9" t="s">
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="T9" t="s">
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="V9" t="s">
         <v>1</v>
@@ -4359,67 +3056,67 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="J10" t="s">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="L10" t="s">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="N10" t="s">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="P10" t="s">
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="R10" t="s">
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="T10" t="s">
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="V10" t="s">
         <v>1</v>
@@ -4427,67 +3124,67 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="L11" t="s">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="N11" t="s">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="P11" t="s">
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="R11" t="s">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="T11" t="s">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="V11" t="s">
         <v>1</v>
@@ -4495,67 +3192,67 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="D12" t="s">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="H12" t="s">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="J12" t="s">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="L12" t="s">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="N12" t="s">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="P12" t="s">
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="R12" t="s">
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="T12" t="s">
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="V12" t="s">
         <v>1</v>
@@ -4563,7 +3260,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -4631,7 +3328,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -4703,14 +3400,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.85546875" customWidth="1"/>
@@ -4738,67 +3435,67 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="L1" t="s">
         <v>0</v>
       </c>
       <c r="M1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="N1" t="s">
         <v>0</v>
       </c>
       <c r="O1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R1" t="s">
         <v>0</v>
       </c>
       <c r="S1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="T1" t="s">
         <v>0</v>
       </c>
       <c r="U1" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="V1" t="s">
         <v>1</v>
@@ -4806,67 +3503,67 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s">
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="N2" t="s">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="P2" t="s">
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="R2" t="s">
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="T2" t="s">
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s">
         <v>1</v>
@@ -4874,19 +3571,19 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -4942,67 +3639,67 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L4" t="s">
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="N4" t="s">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s">
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="R4" t="s">
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="T4" t="s">
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="V4" t="s">
         <v>1</v>
@@ -5010,67 +3707,67 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="L5" t="s">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="N5" t="s">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="P5" t="s">
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="R5" t="s">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="T5" t="s">
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="V5" t="s">
         <v>1</v>
@@ -5078,67 +3775,67 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L6" t="s">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="N6" t="s">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="P6" t="s">
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="R6" t="s">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="T6" t="s">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s">
         <v>1</v>
@@ -5146,67 +3843,67 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L7" t="s">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="N7" t="s">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="P7" t="s">
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="R7" t="s">
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="T7" t="s">
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="V7" t="s">
         <v>1</v>
@@ -5214,67 +3911,67 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L8" t="s">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="N8" t="s">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="P8" t="s">
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="R8" t="s">
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="T8" t="s">
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="V8" t="s">
         <v>1</v>
@@ -5282,67 +3979,67 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L9" t="s">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="N9" t="s">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="P9" t="s">
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="R9" t="s">
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="T9" t="s">
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s">
         <v>1</v>
@@ -5350,67 +4047,67 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="J10" t="s">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="L10" t="s">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="N10" t="s">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="P10" t="s">
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="R10" t="s">
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="T10" t="s">
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="V10" t="s">
         <v>1</v>
@@ -5418,67 +4115,67 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="L11" t="s">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="N11" t="s">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="P11" t="s">
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="R11" t="s">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="T11" t="s">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="V11" t="s">
         <v>1</v>
@@ -5486,67 +4183,67 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="D12" t="s">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="H12" t="s">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="J12" t="s">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="L12" t="s">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="N12" t="s">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="P12" t="s">
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="R12" t="s">
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="T12" t="s">
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="V12" t="s">
         <v>1</v>
@@ -5554,7 +4251,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -5622,7 +4319,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -5695,14 +4392,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" customWidth="1"/>
@@ -5720,67 +4417,67 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="L1" t="s">
         <v>0</v>
       </c>
       <c r="M1" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="N1" t="s">
         <v>0</v>
       </c>
       <c r="O1" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="R1" t="s">
         <v>0</v>
       </c>
       <c r="S1" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="T1" t="s">
         <v>0</v>
       </c>
       <c r="U1" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="V1" t="s">
         <v>1</v>
@@ -5788,67 +4485,67 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s">
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="N2" t="s">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="P2" t="s">
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="R2" t="s">
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="T2" t="s">
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="V2" t="s">
         <v>1</v>
@@ -5856,25 +4553,25 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>156</v>
+      <c r="G3" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
@@ -5891,8 +4588,8 @@
       <c r="L3" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>202</v>
+      <c r="M3" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="N3" t="s">
         <v>0</v>
@@ -5924,67 +4621,67 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="J4" t="s">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L4" t="s">
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="N4" t="s">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="P4" t="s">
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="R4" t="s">
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="T4" t="s">
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="V4" t="s">
         <v>1</v>
@@ -5992,67 +4689,67 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="L5" t="s">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="N5" t="s">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="P5" t="s">
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="R5" t="s">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="T5" t="s">
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="V5" t="s">
         <v>1</v>
@@ -6060,67 +4757,67 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L6" t="s">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N6" t="s">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="P6" t="s">
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="R6" t="s">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="T6" t="s">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="V6" t="s">
         <v>1</v>
@@ -6128,67 +4825,67 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L7" t="s">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="N7" t="s">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="P7" t="s">
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="R7" t="s">
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="T7" t="s">
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="V7" t="s">
         <v>1</v>
@@ -6196,67 +4893,67 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L8" t="s">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="N8" t="s">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="P8" t="s">
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="R8" t="s">
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="T8" t="s">
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="V8" t="s">
         <v>1</v>
@@ -6264,67 +4961,67 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L9" t="s">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="N9" t="s">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="P9" t="s">
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="R9" t="s">
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="T9" t="s">
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="V9" t="s">
         <v>1</v>
@@ -6332,67 +5029,67 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="J10" t="s">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="L10" t="s">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="N10" t="s">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="P10" t="s">
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="R10" t="s">
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="T10" t="s">
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="V10" t="s">
         <v>1</v>
@@ -6400,67 +5097,67 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="L11" t="s">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="N11" t="s">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="P11" t="s">
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="R11" t="s">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="T11" t="s">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="V11" t="s">
         <v>1</v>
@@ -6468,67 +5165,67 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="D12" t="s">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="H12" t="s">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="J12" t="s">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="L12" t="s">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="N12" t="s">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="P12" t="s">
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="R12" t="s">
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="T12" t="s">
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="V12" t="s">
         <v>1</v>
@@ -6536,7 +5233,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -6565,14 +5262,14 @@
       <c r="J13" t="s">
         <v>0</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>204</v>
+      <c r="K13" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="L13" t="s">
         <v>0</v>
       </c>
-      <c r="M13" s="3" t="s">
-        <v>205</v>
+      <c r="M13" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="N13" t="s">
         <v>0</v>
@@ -6604,7 +5301,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -6676,14 +5373,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AJ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="3.28515625" customWidth="1"/>
@@ -6719,67 +5416,67 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="L1" t="s">
         <v>0</v>
       </c>
       <c r="M1" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="N1" t="s">
         <v>0</v>
       </c>
       <c r="O1" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="R1" t="s">
         <v>0</v>
       </c>
       <c r="S1" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="T1" t="s">
         <v>0</v>
       </c>
       <c r="U1" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="V1" t="s">
         <v>1</v>
@@ -6787,13 +5484,13 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -6828,8 +5525,8 @@
       <c r="N2" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>256</v>
+      <c r="O2" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="P2" t="s">
         <v>0</v>
@@ -6846,30 +5543,30 @@
       <c r="T2" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="3" t="s">
-        <v>256</v>
+      <c r="U2" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="V2" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" s="3"/>
-      <c r="AJ2" s="3"/>
+      <c r="AD2" s="2"/>
+      <c r="AJ2" s="2"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -6925,67 +5622,67 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="J4" t="s">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L4" t="s">
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="N4" t="s">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="P4" t="s">
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="R4" t="s">
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="T4" t="s">
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="V4" t="s">
         <v>1</v>
@@ -6993,67 +5690,67 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="L5" t="s">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="N5" t="s">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="P5" t="s">
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="R5" t="s">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="T5" t="s">
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="V5" t="s">
         <v>1</v>
@@ -7061,67 +5758,67 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L6" t="s">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="N6" t="s">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="P6" t="s">
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="R6" t="s">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="T6" t="s">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="V6" t="s">
         <v>1</v>
@@ -7129,67 +5826,67 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L7" t="s">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="N7" t="s">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="P7" t="s">
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="R7" t="s">
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="T7" t="s">
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="V7" t="s">
         <v>1</v>
@@ -7197,67 +5894,67 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L8" t="s">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="N8" t="s">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="P8" t="s">
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="R8" t="s">
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="T8" t="s">
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="V8" t="s">
         <v>1</v>
@@ -7265,67 +5962,67 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L9" t="s">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="N9" t="s">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="P9" t="s">
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="R9" t="s">
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="T9" t="s">
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="V9" t="s">
         <v>1</v>
@@ -7333,67 +6030,67 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="J10" t="s">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="L10" t="s">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="N10" t="s">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="P10" t="s">
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="R10" t="s">
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="T10" t="s">
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="V10" t="s">
         <v>1</v>
@@ -7401,67 +6098,67 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="L11" t="s">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="N11" t="s">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="P11" t="s">
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="R11" t="s">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="T11" t="s">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="V11" t="s">
         <v>1</v>
@@ -7469,67 +6166,67 @@
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="D12" t="s">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="H12" t="s">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="J12" t="s">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="L12" t="s">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="N12" t="s">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="P12" t="s">
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="R12" t="s">
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="T12" t="s">
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="V12" t="s">
         <v>1</v>
@@ -7537,7 +6234,7 @@
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -7554,8 +6251,8 @@
       <c r="F13" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>285</v>
+      <c r="G13" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="H13" t="s">
         <v>0</v>
@@ -7605,13 +6302,13 @@
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>261</v>
+      <c r="C14" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="D14" t="s">
         <v>0</v>
@@ -7634,8 +6331,8 @@
       <c r="J14" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>262</v>
+      <c r="K14" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="L14" t="s">
         <v>0</v>
@@ -7646,8 +6343,8 @@
       <c r="N14" t="s">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>262</v>
+      <c r="O14" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="P14" t="s">
         <v>0</v>
@@ -7678,14 +6375,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.85546875" customWidth="1"/>
@@ -7703,67 +6400,67 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="L1" t="s">
         <v>0</v>
       </c>
       <c r="M1" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="N1" t="s">
         <v>0</v>
       </c>
       <c r="O1" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="R1" t="s">
         <v>0</v>
       </c>
       <c r="S1" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="T1" t="s">
         <v>0</v>
       </c>
       <c r="U1" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="V1" t="s">
         <v>1</v>
@@ -7771,13 +6468,13 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -7812,8 +6509,8 @@
       <c r="N2" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>256</v>
+      <c r="O2" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="P2" t="s">
         <v>0</v>
@@ -7824,14 +6521,14 @@
       <c r="R2" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>256</v>
+      <c r="S2" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="T2" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="3" t="s">
-        <v>256</v>
+      <c r="U2" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="V2" t="s">
         <v>1</v>
@@ -7839,19 +6536,19 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -7907,67 +6604,67 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="J4" t="s">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L4" t="s">
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="N4" t="s">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="P4" t="s">
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="R4" t="s">
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="T4" t="s">
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="V4" t="s">
         <v>1</v>
@@ -7975,67 +6672,67 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="L5" t="s">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="N5" t="s">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="P5" t="s">
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="R5" t="s">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="T5" t="s">
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="V5" t="s">
         <v>1</v>
@@ -8043,67 +6740,67 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L6" t="s">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="N6" t="s">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="P6" t="s">
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="R6" t="s">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="T6" t="s">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="V6" t="s">
         <v>1</v>
@@ -8111,67 +6808,67 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L7" t="s">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="N7" t="s">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="P7" t="s">
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="R7" t="s">
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="T7" t="s">
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="V7" t="s">
         <v>1</v>
@@ -8179,67 +6876,67 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L8" t="s">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="N8" t="s">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="P8" t="s">
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="R8" t="s">
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="T8" t="s">
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="V8" t="s">
         <v>1</v>
@@ -8247,67 +6944,67 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L9" t="s">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="N9" t="s">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="P9" t="s">
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="R9" t="s">
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="T9" t="s">
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="V9" t="s">
         <v>1</v>
@@ -8315,67 +7012,67 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="J10" t="s">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="L10" t="s">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="N10" t="s">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="P10" t="s">
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="R10" t="s">
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="T10" t="s">
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="V10" t="s">
         <v>1</v>
@@ -8383,67 +7080,67 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="L11" t="s">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="N11" t="s">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="P11" t="s">
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="R11" t="s">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="T11" t="s">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="V11" t="s">
         <v>1</v>
@@ -8451,67 +7148,67 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="D12" t="s">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="H12" t="s">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="J12" t="s">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="L12" t="s">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="N12" t="s">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="P12" t="s">
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="R12" t="s">
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="T12" t="s">
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="V12" t="s">
         <v>1</v>
@@ -8519,7 +7216,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -8587,13 +7284,13 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>280</v>
+      <c r="C14" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="D14" t="s">
         <v>0</v>
@@ -8622,8 +7319,8 @@
       <c r="L14" t="s">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>261</v>
+      <c r="M14" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="N14" t="s">
         <v>0</v>
@@ -8646,8 +7343,8 @@
       <c r="T14" t="s">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>261</v>
+      <c r="U14" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="V14" t="s">
         <v>1</v>
@@ -8659,14 +7356,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:V14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" customWidth="1"/>
@@ -8685,67 +7382,67 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="L1" t="s">
         <v>0</v>
       </c>
       <c r="M1" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="N1" t="s">
         <v>0</v>
       </c>
       <c r="O1" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="R1" t="s">
         <v>0</v>
       </c>
       <c r="S1" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="T1" t="s">
         <v>0</v>
       </c>
       <c r="U1" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="V1" t="s">
         <v>1</v>
@@ -8753,67 +7450,67 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="L2" t="s">
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="N2" t="s">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="P2" t="s">
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="R2" t="s">
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="T2" t="s">
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="V2" t="s">
         <v>1</v>
@@ -8821,19 +7518,19 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -8889,67 +7586,67 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="J4" t="s">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L4" t="s">
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="N4" t="s">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="P4" t="s">
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="R4" t="s">
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="T4" t="s">
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="V4" t="s">
         <v>1</v>
@@ -8957,67 +7654,67 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="L5" t="s">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="N5" t="s">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="P5" t="s">
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="R5" t="s">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="T5" t="s">
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="V5" t="s">
         <v>1</v>
@@ -9025,67 +7722,67 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L6" t="s">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="N6" t="s">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="P6" t="s">
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="R6" t="s">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="T6" t="s">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="V6" t="s">
         <v>1</v>
@@ -9093,67 +7790,67 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L7" t="s">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="N7" t="s">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="P7" t="s">
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="R7" t="s">
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="T7" t="s">
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="V7" t="s">
         <v>1</v>
@@ -9161,67 +7858,67 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L8" t="s">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="N8" t="s">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="P8" t="s">
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="R8" t="s">
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="T8" t="s">
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="V8" t="s">
         <v>1</v>
@@ -9229,61 +7926,61 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L9" t="s">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="N9" t="s">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="P9" t="s">
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="R9" t="s">
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="T9" t="s">
         <v>0</v>
@@ -9297,67 +7994,67 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="J10" t="s">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="L10" t="s">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="N10" t="s">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="P10" t="s">
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="R10" t="s">
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="T10" t="s">
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="V10" t="s">
         <v>1</v>
@@ -9365,67 +8062,67 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="L11" t="s">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="N11" t="s">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="P11" t="s">
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="R11" t="s">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="T11" t="s">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="V11" t="s">
         <v>1</v>
@@ -9433,67 +8130,67 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="D12" t="s">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="H12" t="s">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="J12" t="s">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="L12" t="s">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="N12" t="s">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="P12" t="s">
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="R12" t="s">
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="T12" t="s">
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="V12" t="s">
         <v>1</v>
@@ -9501,7 +8198,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -9569,7 +8266,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -9604,8 +8301,8 @@
       <c r="L14" t="s">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>286</v>
+      <c r="M14" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="N14" t="s">
         <v>0</v>
@@ -9641,14 +8338,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="V14" sqref="A1:V14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.42578125" customWidth="1"/>
@@ -9666,67 +8363,67 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="L1" t="s">
         <v>0</v>
       </c>
       <c r="M1" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="N1" t="s">
         <v>0</v>
       </c>
       <c r="O1" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="R1" t="s">
         <v>0</v>
       </c>
       <c r="S1" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="T1" t="s">
         <v>0</v>
       </c>
       <c r="U1" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="V1" t="s">
         <v>1</v>
@@ -9734,67 +8431,67 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="L2" t="s">
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="N2" t="s">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="P2" t="s">
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="R2" t="s">
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="T2" t="s">
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="V2" t="s">
         <v>1</v>
@@ -9802,19 +8499,19 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -9831,8 +8528,8 @@
       <c r="J3" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>256</v>
+      <c r="K3" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="L3" t="s">
         <v>0</v>
@@ -9870,67 +8567,67 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="J4" t="s">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L4" t="s">
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="N4" t="s">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="P4" t="s">
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="R4" t="s">
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="T4" t="s">
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="V4" t="s">
         <v>1</v>
@@ -9938,67 +8635,67 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="L5" t="s">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="N5" t="s">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="P5" t="s">
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="R5" t="s">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="T5" t="s">
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="V5" t="s">
         <v>1</v>
@@ -10006,67 +8703,67 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L6" t="s">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="N6" t="s">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="P6" t="s">
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="R6" t="s">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="T6" t="s">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="V6" t="s">
         <v>1</v>
@@ -10074,67 +8771,67 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L7" t="s">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="N7" t="s">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="P7" t="s">
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="R7" t="s">
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="T7" t="s">
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="V7" t="s">
         <v>1</v>
@@ -10142,67 +8839,67 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L8" t="s">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="N8" t="s">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="P8" t="s">
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="R8" t="s">
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="T8" t="s">
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="V8" t="s">
         <v>1</v>
@@ -10210,61 +8907,61 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L9" t="s">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="N9" t="s">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="P9" t="s">
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="R9" t="s">
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="T9" t="s">
         <v>0</v>
@@ -10278,67 +8975,67 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="J10" t="s">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="L10" t="s">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="N10" t="s">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="P10" t="s">
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="R10" t="s">
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="T10" t="s">
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="V10" t="s">
         <v>1</v>
@@ -10346,67 +9043,67 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="L11" t="s">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="N11" t="s">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="P11" t="s">
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="R11" t="s">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="T11" t="s">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="V11" t="s">
         <v>1</v>
@@ -10414,67 +9111,67 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="D12" t="s">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="H12" t="s">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="J12" t="s">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="L12" t="s">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="N12" t="s">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="P12" t="s">
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="R12" t="s">
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="T12" t="s">
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="V12" t="s">
         <v>1</v>
@@ -10482,7 +9179,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -10499,8 +9196,8 @@
       <c r="F13" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>301</v>
+      <c r="G13" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="H13" t="s">
         <v>0</v>
@@ -10550,7 +9247,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -10579,14 +9276,14 @@
       <c r="J14" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>286</v>
+      <c r="K14" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="L14" t="s">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>286</v>
+      <c r="M14" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="N14" t="s">
         <v>0</v>

--- a/04_Writing/02_Tables/tab_regression.xlsx
+++ b/04_Writing/02_Tables/tab_regression.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dokumente\Jobs\ZEW\Research\01_Promotion\05_Ideas\09_Cleantech\cleantech\04_Writing\02_Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3638AB49-EAC9-4C91-A3D4-CAAF2DDA92AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BE622D-093A-4166-A2D2-F97B9338BDB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,9 +62,6 @@
     <t>E-Efficiency</t>
   </si>
   <si>
-    <t>E-Mobility</t>
-  </si>
-  <si>
     <t>Generation</t>
   </si>
   <si>
@@ -858,6 +855,9 @@
   </si>
   <si>
     <t>tech_prox</t>
+  </si>
+  <si>
+    <t>Mobility</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1200,7 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -1238,13 +1238,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
@@ -1258,13 +1258,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
@@ -1278,13 +1278,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>1</v>
@@ -1298,13 +1298,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>1</v>
@@ -1318,13 +1318,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
@@ -1371,19 +1371,19 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1391,20 +1391,20 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
+      <c r="A10" t="s">
+        <v>274</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>34</v>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>1</v>
@@ -1412,19 +1412,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>1</v>
@@ -1461,67 +1461,67 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
         <v>80</v>
       </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
         <v>80</v>
       </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" t="s">
-        <v>81</v>
-      </c>
-      <c r="N1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" t="s">
-        <v>81</v>
-      </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" t="s">
         <v>80</v>
       </c>
-      <c r="R1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" t="s">
-        <v>81</v>
-      </c>
       <c r="T1" t="s">
         <v>0</v>
       </c>
       <c r="U1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V1" t="s">
         <v>1</v>
@@ -1529,25 +1529,25 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
         <v>83</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>84</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
@@ -1597,19 +1597,19 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L3" t="s">
         <v>0</v>
@@ -1665,67 +1665,67 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
       </c>
       <c r="I4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
         <v>85</v>
       </c>
-      <c r="J4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
         <v>86</v>
       </c>
-      <c r="N4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
         <v>87</v>
       </c>
-      <c r="P4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
         <v>88</v>
       </c>
-      <c r="R4" t="s">
-        <v>0</v>
-      </c>
-      <c r="S4" t="s">
-        <v>89</v>
-      </c>
       <c r="T4" t="s">
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V4" t="s">
         <v>1</v>
@@ -1733,67 +1733,67 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P5" t="s">
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R5" t="s">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T5" t="s">
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s">
         <v>1</v>
@@ -1801,67 +1801,67 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L6" t="s">
         <v>0</v>
       </c>
       <c r="M6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
         <v>91</v>
       </c>
-      <c r="N6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
         <v>92</v>
       </c>
-      <c r="P6" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
         <v>93</v>
       </c>
-      <c r="R6" t="s">
-        <v>0</v>
-      </c>
-      <c r="S6" t="s">
-        <v>94</v>
-      </c>
       <c r="T6" t="s">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V6" t="s">
         <v>1</v>
@@ -1869,61 +1869,61 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L7" t="s">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N7" t="s">
         <v>0</v>
       </c>
       <c r="O7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
         <v>95</v>
-      </c>
-      <c r="P7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>42</v>
-      </c>
-      <c r="R7" t="s">
-        <v>0</v>
-      </c>
-      <c r="S7" t="s">
-        <v>96</v>
       </c>
       <c r="T7" t="s">
         <v>0</v>
@@ -1937,67 +1937,67 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L8" t="s">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N8" t="s">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P8" t="s">
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R8" t="s">
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T8" t="s">
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s">
         <v>1</v>
@@ -2005,67 +2005,67 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L9" t="s">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N9" t="s">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P9" t="s">
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R9" t="s">
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T9" t="s">
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V9" t="s">
         <v>1</v>
@@ -2079,61 +2079,61 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J10" t="s">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L10" t="s">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N10" t="s">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P10" t="s">
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R10" t="s">
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T10" t="s">
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V10" t="s">
         <v>1</v>
@@ -2141,67 +2141,67 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L11" t="s">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N11" t="s">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P11" t="s">
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R11" t="s">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V11" t="s">
         <v>1</v>
@@ -2209,67 +2209,67 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>164</v>
+      </c>
+      <c r="J12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
         <v>165</v>
       </c>
-      <c r="D12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>165</v>
-      </c>
-      <c r="F12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>165</v>
-      </c>
-      <c r="H12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>165</v>
-      </c>
-      <c r="J12" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>164</v>
+      </c>
+      <c r="N12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>164</v>
+      </c>
+      <c r="P12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
         <v>166</v>
       </c>
-      <c r="L12" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>165</v>
-      </c>
-      <c r="N12" t="s">
-        <v>0</v>
-      </c>
-      <c r="O12" t="s">
-        <v>165</v>
-      </c>
-      <c r="P12" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
         <v>167</v>
       </c>
-      <c r="R12" t="s">
-        <v>0</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
         <v>168</v>
-      </c>
-      <c r="T12" t="s">
-        <v>0</v>
-      </c>
-      <c r="U12" t="s">
-        <v>169</v>
       </c>
       <c r="V12" t="s">
         <v>1</v>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -2444,67 +2444,67 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>134</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
         <v>135</v>
       </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
         <v>136</v>
       </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
         <v>137</v>
       </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
         <v>138</v>
       </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
         <v>139</v>
       </c>
-      <c r="N1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="s">
         <v>140</v>
       </c>
-      <c r="P1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" t="s">
         <v>141</v>
       </c>
-      <c r="R1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" t="s">
-        <v>142</v>
-      </c>
       <c r="T1" t="s">
         <v>0</v>
       </c>
       <c r="U1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="V1" t="s">
         <v>1</v>
@@ -2512,25 +2512,25 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
         <v>143</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>144</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
@@ -2580,19 +2580,19 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -2648,67 +2648,67 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
       </c>
       <c r="I4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
         <v>145</v>
       </c>
-      <c r="J4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
         <v>146</v>
       </c>
-      <c r="N4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
         <v>147</v>
       </c>
-      <c r="P4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
         <v>148</v>
       </c>
-      <c r="R4" t="s">
-        <v>0</v>
-      </c>
-      <c r="S4" t="s">
-        <v>149</v>
-      </c>
       <c r="T4" t="s">
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V4" t="s">
         <v>1</v>
@@ -2716,67 +2716,67 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L5" t="s">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P5" t="s">
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R5" t="s">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T5" t="s">
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s">
         <v>1</v>
@@ -2784,67 +2784,67 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L6" t="s">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N6" t="s">
         <v>0</v>
       </c>
       <c r="O6" t="s">
+        <v>150</v>
+      </c>
+      <c r="P6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
         <v>151</v>
       </c>
-      <c r="P6" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
         <v>152</v>
       </c>
-      <c r="R6" t="s">
-        <v>0</v>
-      </c>
-      <c r="S6" t="s">
-        <v>153</v>
-      </c>
       <c r="T6" t="s">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V6" t="s">
         <v>1</v>
@@ -2852,61 +2852,61 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L7" t="s">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N7" t="s">
         <v>0</v>
       </c>
       <c r="O7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
         <v>154</v>
-      </c>
-      <c r="P7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>42</v>
-      </c>
-      <c r="R7" t="s">
-        <v>0</v>
-      </c>
-      <c r="S7" t="s">
-        <v>155</v>
       </c>
       <c r="T7" t="s">
         <v>0</v>
@@ -2920,67 +2920,67 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L8" t="s">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N8" t="s">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P8" t="s">
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R8" t="s">
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T8" t="s">
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s">
         <v>1</v>
@@ -2988,67 +2988,67 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L9" t="s">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N9" t="s">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P9" t="s">
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R9" t="s">
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T9" t="s">
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V9" t="s">
         <v>1</v>
@@ -3062,61 +3062,61 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J10" t="s">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L10" t="s">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N10" t="s">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P10" t="s">
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R10" t="s">
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T10" t="s">
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V10" t="s">
         <v>1</v>
@@ -3124,67 +3124,67 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L11" t="s">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N11" t="s">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P11" t="s">
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R11" t="s">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V11" t="s">
         <v>1</v>
@@ -3192,67 +3192,67 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>164</v>
+      </c>
+      <c r="J12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
         <v>165</v>
       </c>
-      <c r="D12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>165</v>
-      </c>
-      <c r="F12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>165</v>
-      </c>
-      <c r="H12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>165</v>
-      </c>
-      <c r="J12" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>164</v>
+      </c>
+      <c r="N12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>164</v>
+      </c>
+      <c r="P12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
         <v>166</v>
       </c>
-      <c r="L12" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>165</v>
-      </c>
-      <c r="N12" t="s">
-        <v>0</v>
-      </c>
-      <c r="O12" t="s">
-        <v>165</v>
-      </c>
-      <c r="P12" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
         <v>167</v>
       </c>
-      <c r="R12" t="s">
-        <v>0</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
         <v>168</v>
-      </c>
-      <c r="T12" t="s">
-        <v>0</v>
-      </c>
-      <c r="U12" t="s">
-        <v>169</v>
       </c>
       <c r="V12" t="s">
         <v>1</v>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -3328,7 +3328,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -3435,67 +3435,67 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="R1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" t="s">
-        <v>39</v>
-      </c>
       <c r="T1" t="s">
         <v>0</v>
       </c>
       <c r="U1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V1" t="s">
         <v>1</v>
@@ -3503,67 +3503,67 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>163</v>
       </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>164</v>
-      </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
         <v>44</v>
       </c>
-      <c r="L2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
         <v>45</v>
       </c>
-      <c r="N2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
         <v>46</v>
       </c>
-      <c r="P2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" t="s">
-        <v>47</v>
-      </c>
       <c r="T2" t="s">
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V2" t="s">
         <v>1</v>
@@ -3571,19 +3571,19 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -3639,67 +3639,67 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
         <v>50</v>
       </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
         <v>51</v>
       </c>
-      <c r="J4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
         <v>52</v>
       </c>
-      <c r="N4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
         <v>53</v>
       </c>
-      <c r="P4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>55</v>
-      </c>
-      <c r="R4" t="s">
-        <v>0</v>
-      </c>
-      <c r="S4" t="s">
-        <v>54</v>
-      </c>
       <c r="T4" t="s">
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V4" t="s">
         <v>1</v>
@@ -3707,67 +3707,67 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>57</v>
-      </c>
       <c r="L5" t="s">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P5" t="s">
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R5" t="s">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T5" t="s">
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s">
         <v>1</v>
@@ -3775,67 +3775,67 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
         <v>58</v>
       </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
         <v>59</v>
       </c>
-      <c r="N6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>61</v>
+      </c>
+      <c r="R6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
         <v>60</v>
       </c>
-      <c r="P6" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>62</v>
-      </c>
-      <c r="R6" t="s">
-        <v>0</v>
-      </c>
-      <c r="S6" t="s">
-        <v>61</v>
-      </c>
       <c r="T6" t="s">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V6" t="s">
         <v>1</v>
@@ -3843,67 +3843,67 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
         <v>65</v>
       </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
         <v>66</v>
       </c>
-      <c r="P7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>42</v>
-      </c>
-      <c r="R7" t="s">
-        <v>0</v>
-      </c>
-      <c r="S7" t="s">
-        <v>67</v>
-      </c>
       <c r="T7" t="s">
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s">
         <v>1</v>
@@ -3911,67 +3911,67 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
         <v>68</v>
       </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O8" t="s">
-        <v>42</v>
-      </c>
-      <c r="P8" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>69</v>
-      </c>
       <c r="R8" t="s">
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T8" t="s">
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s">
         <v>1</v>
@@ -3979,67 +3979,67 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
         <v>63</v>
       </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O9" t="s">
-        <v>42</v>
-      </c>
-      <c r="P9" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>42</v>
-      </c>
-      <c r="R9" t="s">
-        <v>0</v>
-      </c>
-      <c r="S9" t="s">
-        <v>64</v>
-      </c>
       <c r="T9" t="s">
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s">
         <v>1</v>
@@ -4053,61 +4053,61 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J10" t="s">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L10" t="s">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N10" t="s">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P10" t="s">
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R10" t="s">
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T10" t="s">
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V10" t="s">
         <v>1</v>
@@ -4115,67 +4115,67 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L11" t="s">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N11" t="s">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P11" t="s">
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R11" t="s">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V11" t="s">
         <v>1</v>
@@ -4183,67 +4183,67 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>164</v>
+      </c>
+      <c r="J12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
         <v>165</v>
       </c>
-      <c r="D12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>165</v>
-      </c>
-      <c r="F12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>165</v>
-      </c>
-      <c r="H12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>165</v>
-      </c>
-      <c r="J12" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>164</v>
+      </c>
+      <c r="N12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>164</v>
+      </c>
+      <c r="P12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
         <v>166</v>
       </c>
-      <c r="L12" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>165</v>
-      </c>
-      <c r="N12" t="s">
-        <v>0</v>
-      </c>
-      <c r="O12" t="s">
-        <v>165</v>
-      </c>
-      <c r="P12" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
         <v>167</v>
       </c>
-      <c r="R12" t="s">
-        <v>0</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
         <v>168</v>
-      </c>
-      <c r="T12" t="s">
-        <v>0</v>
-      </c>
-      <c r="U12" t="s">
-        <v>169</v>
       </c>
       <c r="V12" t="s">
         <v>1</v>
@@ -4251,7 +4251,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -4417,67 +4417,67 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>104</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
         <v>105</v>
       </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
         <v>106</v>
       </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
         <v>107</v>
       </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
         <v>108</v>
       </c>
-      <c r="N1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="s">
         <v>109</v>
       </c>
-      <c r="P1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" t="s">
         <v>110</v>
       </c>
-      <c r="R1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" t="s">
-        <v>111</v>
-      </c>
       <c r="T1" t="s">
         <v>0</v>
       </c>
       <c r="U1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V1" t="s">
         <v>1</v>
@@ -4485,67 +4485,67 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>112</v>
       </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
         <v>43</v>
       </c>
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
         <v>113</v>
       </c>
-      <c r="J2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
         <v>114</v>
       </c>
-      <c r="R2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" t="s">
-        <v>115</v>
-      </c>
       <c r="T2" t="s">
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V2" t="s">
         <v>1</v>
@@ -4553,25 +4553,25 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N3" t="s">
         <v>0</v>
@@ -4621,67 +4621,67 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
       </c>
       <c r="I4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
         <v>116</v>
       </c>
-      <c r="J4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
         <v>117</v>
       </c>
-      <c r="P4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>118</v>
-      </c>
       <c r="R4" t="s">
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T4" t="s">
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="V4" t="s">
         <v>1</v>
@@ -4689,67 +4689,67 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L5" t="s">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P5" t="s">
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R5" t="s">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T5" t="s">
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s">
         <v>1</v>
@@ -4757,67 +4757,67 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L6" t="s">
         <v>0</v>
       </c>
       <c r="M6" t="s">
+        <v>119</v>
+      </c>
+      <c r="N6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
         <v>120</v>
       </c>
-      <c r="N6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
         <v>121</v>
       </c>
-      <c r="P6" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>122</v>
-      </c>
       <c r="R6" t="s">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T6" t="s">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V6" t="s">
         <v>1</v>
@@ -4825,67 +4825,67 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L7" t="s">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N7" t="s">
         <v>0</v>
       </c>
       <c r="O7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
         <v>123</v>
       </c>
-      <c r="P7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>42</v>
-      </c>
-      <c r="R7" t="s">
-        <v>0</v>
-      </c>
-      <c r="S7" t="s">
-        <v>124</v>
-      </c>
       <c r="T7" t="s">
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V7" t="s">
         <v>1</v>
@@ -4893,67 +4893,67 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L8" t="s">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N8" t="s">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P8" t="s">
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R8" t="s">
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T8" t="s">
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s">
         <v>1</v>
@@ -4961,67 +4961,67 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
         <v>63</v>
       </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O9" t="s">
-        <v>42</v>
-      </c>
-      <c r="P9" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>42</v>
-      </c>
-      <c r="R9" t="s">
-        <v>0</v>
-      </c>
-      <c r="S9" t="s">
-        <v>64</v>
-      </c>
       <c r="T9" t="s">
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V9" t="s">
         <v>1</v>
@@ -5035,61 +5035,61 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J10" t="s">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L10" t="s">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N10" t="s">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P10" t="s">
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R10" t="s">
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T10" t="s">
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V10" t="s">
         <v>1</v>
@@ -5097,67 +5097,67 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L11" t="s">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N11" t="s">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P11" t="s">
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R11" t="s">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V11" t="s">
         <v>1</v>
@@ -5165,67 +5165,67 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>164</v>
+      </c>
+      <c r="J12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
         <v>165</v>
       </c>
-      <c r="D12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>165</v>
-      </c>
-      <c r="F12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>165</v>
-      </c>
-      <c r="H12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>165</v>
-      </c>
-      <c r="J12" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>164</v>
+      </c>
+      <c r="N12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>164</v>
+      </c>
+      <c r="P12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
         <v>166</v>
       </c>
-      <c r="L12" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>165</v>
-      </c>
-      <c r="N12" t="s">
-        <v>0</v>
-      </c>
-      <c r="O12" t="s">
-        <v>165</v>
-      </c>
-      <c r="P12" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
         <v>167</v>
       </c>
-      <c r="R12" t="s">
-        <v>0</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
         <v>168</v>
-      </c>
-      <c r="T12" t="s">
-        <v>0</v>
-      </c>
-      <c r="U12" t="s">
-        <v>169</v>
       </c>
       <c r="V12" t="s">
         <v>1</v>
@@ -5233,7 +5233,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -5263,13 +5263,13 @@
         <v>0</v>
       </c>
       <c r="K13" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="L13" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="N13" t="s">
         <v>0</v>
@@ -5301,7 +5301,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -5416,67 +5416,67 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>205</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
         <v>206</v>
       </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
         <v>207</v>
       </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
         <v>208</v>
       </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
         <v>209</v>
       </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" t="s">
-        <v>208</v>
-      </c>
-      <c r="N1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="s">
         <v>210</v>
       </c>
-      <c r="P1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" t="s">
         <v>211</v>
       </c>
-      <c r="R1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" t="s">
-        <v>212</v>
-      </c>
       <c r="T1" t="s">
         <v>0</v>
       </c>
       <c r="U1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V1" t="s">
         <v>1</v>
@@ -5484,13 +5484,13 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P2" t="s">
         <v>0</v>
@@ -5544,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="V2" t="s">
         <v>1</v>
@@ -5554,19 +5554,19 @@
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -5622,67 +5622,67 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
       </c>
       <c r="I4" t="s">
+        <v>212</v>
+      </c>
+      <c r="J4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>229</v>
+      </c>
+      <c r="N4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
         <v>213</v>
       </c>
-      <c r="J4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>230</v>
-      </c>
-      <c r="N4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
         <v>214</v>
       </c>
-      <c r="P4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
         <v>215</v>
       </c>
-      <c r="R4" t="s">
-        <v>0</v>
-      </c>
-      <c r="S4" t="s">
-        <v>216</v>
-      </c>
       <c r="T4" t="s">
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="V4" t="s">
         <v>1</v>
@@ -5690,67 +5690,67 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L5" t="s">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P5" t="s">
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R5" t="s">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T5" t="s">
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s">
         <v>1</v>
@@ -5758,67 +5758,67 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L6" t="s">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N6" t="s">
         <v>0</v>
       </c>
       <c r="O6" t="s">
+        <v>216</v>
+      </c>
+      <c r="P6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
         <v>217</v>
       </c>
-      <c r="P6" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>218</v>
-      </c>
       <c r="R6" t="s">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T6" t="s">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="V6" t="s">
         <v>1</v>
@@ -5826,67 +5826,67 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L7" t="s">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N7" t="s">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P7" t="s">
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R7" t="s">
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="T7" t="s">
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="V7" t="s">
         <v>1</v>
@@ -5894,67 +5894,67 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L8" t="s">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N8" t="s">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P8" t="s">
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R8" t="s">
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T8" t="s">
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s">
         <v>1</v>
@@ -5962,67 +5962,67 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L9" t="s">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N9" t="s">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P9" t="s">
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R9" t="s">
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="T9" t="s">
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="V9" t="s">
         <v>1</v>
@@ -6036,61 +6036,61 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J10" t="s">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L10" t="s">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N10" t="s">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P10" t="s">
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R10" t="s">
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T10" t="s">
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V10" t="s">
         <v>1</v>
@@ -6098,67 +6098,67 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L11" t="s">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N11" t="s">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P11" t="s">
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R11" t="s">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V11" t="s">
         <v>1</v>
@@ -6166,67 +6166,67 @@
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>164</v>
+      </c>
+      <c r="J12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
         <v>165</v>
       </c>
-      <c r="D12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>165</v>
-      </c>
-      <c r="F12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>165</v>
-      </c>
-      <c r="H12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>165</v>
-      </c>
-      <c r="J12" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>164</v>
+      </c>
+      <c r="N12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>164</v>
+      </c>
+      <c r="P12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
         <v>166</v>
       </c>
-      <c r="L12" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>165</v>
-      </c>
-      <c r="N12" t="s">
-        <v>0</v>
-      </c>
-      <c r="O12" t="s">
-        <v>165</v>
-      </c>
-      <c r="P12" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
         <v>167</v>
       </c>
-      <c r="R12" t="s">
-        <v>0</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
         <v>168</v>
-      </c>
-      <c r="T12" t="s">
-        <v>0</v>
-      </c>
-      <c r="U12" t="s">
-        <v>169</v>
       </c>
       <c r="V12" t="s">
         <v>1</v>
@@ -6234,7 +6234,7 @@
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H13" t="s">
         <v>0</v>
@@ -6302,13 +6302,13 @@
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D14" t="s">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L14" t="s">
         <v>0</v>
@@ -6344,7 +6344,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P14" t="s">
         <v>0</v>
@@ -6400,67 +6400,67 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>233</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
         <v>234</v>
       </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>234</v>
-      </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>233</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
         <v>235</v>
       </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" t="s">
-        <v>234</v>
-      </c>
-      <c r="N1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="s">
         <v>236</v>
       </c>
-      <c r="P1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>237</v>
-      </c>
       <c r="R1" t="s">
         <v>0</v>
       </c>
       <c r="S1" t="s">
+        <v>251</v>
+      </c>
+      <c r="T1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" t="s">
         <v>252</v>
-      </c>
-      <c r="T1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U1" t="s">
-        <v>253</v>
       </c>
       <c r="V1" t="s">
         <v>1</v>
@@ -6468,13 +6468,13 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P2" t="s">
         <v>0</v>
@@ -6522,13 +6522,13 @@
         <v>0</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T2" t="s">
         <v>0</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="V2" t="s">
         <v>1</v>
@@ -6536,19 +6536,19 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -6604,67 +6604,67 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
       </c>
       <c r="I4" t="s">
+        <v>237</v>
+      </c>
+      <c r="J4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
         <v>238</v>
       </c>
-      <c r="J4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>250</v>
+      </c>
+      <c r="P4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
         <v>239</v>
       </c>
-      <c r="N4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
-        <v>251</v>
-      </c>
-      <c r="P4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
         <v>240</v>
       </c>
-      <c r="R4" t="s">
-        <v>0</v>
-      </c>
-      <c r="S4" t="s">
-        <v>241</v>
-      </c>
       <c r="T4" t="s">
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="V4" t="s">
         <v>1</v>
@@ -6672,67 +6672,67 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L5" t="s">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P5" t="s">
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R5" t="s">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T5" t="s">
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s">
         <v>1</v>
@@ -6740,67 +6740,67 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L6" t="s">
         <v>0</v>
       </c>
       <c r="M6" t="s">
+        <v>241</v>
+      </c>
+      <c r="N6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
         <v>242</v>
       </c>
-      <c r="N6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
         <v>243</v>
       </c>
-      <c r="P6" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>244</v>
-      </c>
       <c r="R6" t="s">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T6" t="s">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="V6" t="s">
         <v>1</v>
@@ -6808,67 +6808,67 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L7" t="s">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N7" t="s">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P7" t="s">
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R7" t="s">
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="T7" t="s">
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V7" t="s">
         <v>1</v>
@@ -6876,67 +6876,67 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L8" t="s">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N8" t="s">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P8" t="s">
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R8" t="s">
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T8" t="s">
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s">
         <v>1</v>
@@ -6944,67 +6944,67 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L9" t="s">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N9" t="s">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P9" t="s">
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R9" t="s">
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="T9" t="s">
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="V9" t="s">
         <v>1</v>
@@ -7018,61 +7018,61 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J10" t="s">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L10" t="s">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N10" t="s">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P10" t="s">
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R10" t="s">
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T10" t="s">
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V10" t="s">
         <v>1</v>
@@ -7080,67 +7080,67 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L11" t="s">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N11" t="s">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P11" t="s">
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R11" t="s">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V11" t="s">
         <v>1</v>
@@ -7148,67 +7148,67 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>164</v>
+      </c>
+      <c r="J12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
         <v>165</v>
       </c>
-      <c r="D12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>165</v>
-      </c>
-      <c r="F12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>165</v>
-      </c>
-      <c r="H12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>165</v>
-      </c>
-      <c r="J12" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>164</v>
+      </c>
+      <c r="N12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>164</v>
+      </c>
+      <c r="P12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
         <v>166</v>
       </c>
-      <c r="L12" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>165</v>
-      </c>
-      <c r="N12" t="s">
-        <v>0</v>
-      </c>
-      <c r="O12" t="s">
-        <v>165</v>
-      </c>
-      <c r="P12" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
         <v>167</v>
       </c>
-      <c r="R12" t="s">
-        <v>0</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
         <v>168</v>
-      </c>
-      <c r="T12" t="s">
-        <v>0</v>
-      </c>
-      <c r="U12" t="s">
-        <v>169</v>
       </c>
       <c r="V12" t="s">
         <v>1</v>
@@ -7216,7 +7216,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -7284,13 +7284,13 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D14" t="s">
         <v>0</v>
@@ -7320,7 +7320,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N14" t="s">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="V14" t="s">
         <v>1</v>
@@ -7382,67 +7382,67 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>184</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
         <v>185</v>
       </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
         <v>186</v>
       </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
         <v>187</v>
       </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
         <v>188</v>
       </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>186</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="s">
         <v>189</v>
       </c>
-      <c r="N1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" t="s">
-        <v>187</v>
-      </c>
-      <c r="P1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" t="s">
         <v>190</v>
       </c>
-      <c r="R1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" t="s">
-        <v>191</v>
-      </c>
       <c r="T1" t="s">
         <v>0</v>
       </c>
       <c r="U1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V1" t="s">
         <v>1</v>
@@ -7450,67 +7450,67 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>176</v>
       </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>179</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
         <v>192</v>
       </c>
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>177</v>
-      </c>
-      <c r="J2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>178</v>
-      </c>
-      <c r="L2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="R2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
         <v>179</v>
       </c>
-      <c r="N2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>180</v>
-      </c>
-      <c r="P2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>193</v>
-      </c>
-      <c r="R2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" t="s">
-        <v>180</v>
-      </c>
       <c r="T2" t="s">
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V2" t="s">
         <v>1</v>
@@ -7518,19 +7518,19 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -7586,67 +7586,67 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
       </c>
       <c r="I4" t="s">
+        <v>193</v>
+      </c>
+      <c r="J4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>256</v>
+      </c>
+      <c r="N4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
         <v>194</v>
       </c>
-      <c r="J4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>180</v>
+      </c>
+      <c r="R4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
         <v>257</v>
       </c>
-      <c r="N4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
-        <v>195</v>
-      </c>
-      <c r="P4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>181</v>
-      </c>
-      <c r="R4" t="s">
-        <v>0</v>
-      </c>
-      <c r="S4" t="s">
-        <v>258</v>
-      </c>
       <c r="T4" t="s">
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V4" t="s">
         <v>1</v>
@@ -7654,67 +7654,67 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L5" t="s">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P5" t="s">
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R5" t="s">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T5" t="s">
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s">
         <v>1</v>
@@ -7722,67 +7722,67 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L6" t="s">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N6" t="s">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P6" t="s">
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R6" t="s">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T6" t="s">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V6" t="s">
         <v>1</v>
@@ -7790,67 +7790,67 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L7" t="s">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N7" t="s">
         <v>0</v>
       </c>
       <c r="O7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
         <v>197</v>
       </c>
-      <c r="P7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>42</v>
-      </c>
-      <c r="R7" t="s">
-        <v>0</v>
-      </c>
-      <c r="S7" t="s">
-        <v>198</v>
-      </c>
       <c r="T7" t="s">
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="V7" t="s">
         <v>1</v>
@@ -7858,67 +7858,67 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L8" t="s">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N8" t="s">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P8" t="s">
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R8" t="s">
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T8" t="s">
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s">
         <v>1</v>
@@ -7926,61 +7926,61 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L9" t="s">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N9" t="s">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P9" t="s">
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R9" t="s">
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T9" t="s">
         <v>0</v>
@@ -8000,61 +8000,61 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J10" t="s">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L10" t="s">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N10" t="s">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P10" t="s">
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R10" t="s">
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T10" t="s">
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V10" t="s">
         <v>1</v>
@@ -8062,67 +8062,67 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L11" t="s">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N11" t="s">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P11" t="s">
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R11" t="s">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V11" t="s">
         <v>1</v>
@@ -8130,67 +8130,67 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>164</v>
+      </c>
+      <c r="J12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
         <v>165</v>
       </c>
-      <c r="D12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>165</v>
-      </c>
-      <c r="F12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>165</v>
-      </c>
-      <c r="H12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>165</v>
-      </c>
-      <c r="J12" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>164</v>
+      </c>
+      <c r="N12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>164</v>
+      </c>
+      <c r="P12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
         <v>166</v>
       </c>
-      <c r="L12" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>165</v>
-      </c>
-      <c r="N12" t="s">
-        <v>0</v>
-      </c>
-      <c r="O12" t="s">
-        <v>165</v>
-      </c>
-      <c r="P12" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
         <v>167</v>
       </c>
-      <c r="R12" t="s">
-        <v>0</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
         <v>168</v>
-      </c>
-      <c r="T12" t="s">
-        <v>0</v>
-      </c>
-      <c r="U12" t="s">
-        <v>169</v>
       </c>
       <c r="V12" t="s">
         <v>1</v>
@@ -8198,7 +8198,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -8266,7 +8266,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -8302,7 +8302,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N14" t="s">
         <v>0</v>
@@ -8363,67 +8363,67 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
         <v>259</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>194</v>
-      </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>193</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>181</v>
+      </c>
+      <c r="R1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" t="s">
         <v>260</v>
       </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" t="s">
-        <v>194</v>
-      </c>
-      <c r="N1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" t="s">
-        <v>181</v>
-      </c>
-      <c r="P1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>182</v>
-      </c>
-      <c r="R1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" t="s">
-        <v>261</v>
-      </c>
       <c r="T1" t="s">
         <v>0</v>
       </c>
       <c r="U1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="V1" t="s">
         <v>1</v>
@@ -8431,67 +8431,67 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>176</v>
       </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
         <v>177</v>
       </c>
-      <c r="J2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
         <v>178</v>
       </c>
-      <c r="L2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
         <v>179</v>
       </c>
-      <c r="N2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>180</v>
-      </c>
       <c r="P2" t="s">
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="R2" t="s">
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T2" t="s">
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V2" t="s">
         <v>1</v>
@@ -8499,19 +8499,19 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L3" t="s">
         <v>0</v>
@@ -8567,67 +8567,67 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J4" t="s">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L4" t="s">
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N4" t="s">
         <v>0</v>
       </c>
       <c r="O4" t="s">
+        <v>262</v>
+      </c>
+      <c r="P4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>258</v>
+      </c>
+      <c r="R4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
         <v>263</v>
       </c>
-      <c r="P4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>259</v>
-      </c>
-      <c r="R4" t="s">
-        <v>0</v>
-      </c>
-      <c r="S4" t="s">
-        <v>264</v>
-      </c>
       <c r="T4" t="s">
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="V4" t="s">
         <v>1</v>
@@ -8635,67 +8635,67 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L5" t="s">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P5" t="s">
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R5" t="s">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T5" t="s">
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s">
         <v>1</v>
@@ -8703,67 +8703,67 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L6" t="s">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N6" t="s">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P6" t="s">
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R6" t="s">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T6" t="s">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V6" t="s">
         <v>1</v>
@@ -8771,67 +8771,67 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L7" t="s">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N7" t="s">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P7" t="s">
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R7" t="s">
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="T7" t="s">
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="V7" t="s">
         <v>1</v>
@@ -8839,67 +8839,67 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L8" t="s">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N8" t="s">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P8" t="s">
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R8" t="s">
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T8" t="s">
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s">
         <v>1</v>
@@ -8907,61 +8907,61 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L9" t="s">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N9" t="s">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P9" t="s">
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R9" t="s">
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T9" t="s">
         <v>0</v>
@@ -8981,61 +8981,61 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J10" t="s">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L10" t="s">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N10" t="s">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P10" t="s">
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R10" t="s">
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T10" t="s">
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V10" t="s">
         <v>1</v>
@@ -9043,67 +9043,67 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L11" t="s">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N11" t="s">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P11" t="s">
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R11" t="s">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V11" t="s">
         <v>1</v>
@@ -9111,67 +9111,67 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>164</v>
+      </c>
+      <c r="J12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
         <v>165</v>
       </c>
-      <c r="D12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>165</v>
-      </c>
-      <c r="F12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>165</v>
-      </c>
-      <c r="H12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>165</v>
-      </c>
-      <c r="J12" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>164</v>
+      </c>
+      <c r="N12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>164</v>
+      </c>
+      <c r="P12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
         <v>166</v>
       </c>
-      <c r="L12" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>165</v>
-      </c>
-      <c r="N12" t="s">
-        <v>0</v>
-      </c>
-      <c r="O12" t="s">
-        <v>165</v>
-      </c>
-      <c r="P12" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
         <v>167</v>
       </c>
-      <c r="R12" t="s">
-        <v>0</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
         <v>168</v>
-      </c>
-      <c r="T12" t="s">
-        <v>0</v>
-      </c>
-      <c r="U12" t="s">
-        <v>169</v>
       </c>
       <c r="V12" t="s">
         <v>1</v>
@@ -9179,7 +9179,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -9197,7 +9197,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H13" t="s">
         <v>0</v>
@@ -9247,7 +9247,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -9277,13 +9277,13 @@
         <v>0</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L14" t="s">
         <v>0</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N14" t="s">
         <v>0</v>
